--- a/biology/Botanique/Thuya_de_Chine/Thuya_de_Chine.xlsx
+++ b/biology/Botanique/Thuya_de_Chine/Thuya_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platycladus orientalis
 Le Thuya de Chine, ou Thuya d'Orient, Biota d'Orient ou Arbre de Vie (Platycladus orientalis), est une espèce de conifères de la famille des Cupressacées.
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Chine mais naturalisé de l'Iran jusqu'au Japon. Probablement introduit par Engelbert Kaempfer en 1690 (graines semées au jardin botanique de Leyde).
 </t>
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thuja orientalis
 Biota orientalis (L.) Endl.</t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Thuya de Chine est un arbre à croissance lente ne dépassant pas 12 à 20 m de hauteur et 0,5 m de diamètre du tronc (exceptionnellement 30 m de haut et 2 m de diamètre pour les très vieux arbres). Il présente une belle forme colonnaire conique avec des ramifications étalées.
 Le feuillage plat est persistant.
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Résistant à la sécheresse, il est très souvent employé comme arbre d'ornement et pour réaliser des haies car il supporte très bien toutes les tailles.
 Il existe des variétés naines (nana) qui peuvent être cultivés en bac ou traitées en bonsaï.
@@ -641,7 +661,9 @@
           <t>Huile essentielle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses rameaux et ses feuilles contiennent 0,12 % d'huile essentielle contenant du pinène et probablement du caryophyllène. Les racines contiennent jusqu'à 2,75 % d'essence.
 </t>
